--- a/biology/Botanique/Grand_Siècle_(rose)/Grand_Siècle_(rose).xlsx
+++ b/biology/Botanique/Grand_Siècle_(rose)/Grand_Siècle_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_Si%C3%A8cle_(rose)</t>
+          <t>Grand_Siècle_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Grand Siècle' est un cultivar de rosier mis au commerce en 1987 par la maison Delbard. Il est issu d'un croisement (['Queen Elizabeth' x 'Provence'] x ['Michèle Meilland' x 'Bayadère']) X (['Vœux de Bonheur' x 'Meimet'] x ['Madame Antoine Meilland' x 'Docteur François Debat'])[1]. Il rend hommage au Grand Siècle français.
+'Grand Siècle' est un cultivar de rosier mis au commerce en 1987 par la maison Delbard. Il est issu d'un croisement (['Queen Elizabeth' x 'Provence'] x ['Michèle Meilland' x 'Bayadère']) X (['Vœux de Bonheur' x 'Meimet'] x ['Madame Antoine Meilland' x 'Docteur François Debat']). Il rend hommage au Grand Siècle français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_Si%C3%A8cle_(rose)</t>
+          <t>Grand_Siècle_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier au buisson très ramifié au feuillage touffu et vert foncé qui peut s'élever à 100 cm et plus. Il porte de grandes fleurs en coupe, parfumées, d'un rose délicat et crémeux dont le revers des pétales est plus pâle. La floraison est remontante[2].
-Il a besoin d'une situation ensoleillée. Il résiste à des températures pouvant baisser à -20°[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier au buisson très ramifié au feuillage touffu et vert foncé qui peut s'élever à 100 cm et plus. Il porte de grandes fleurs en coupe, parfumées, d'un rose délicat et crémeux dont le revers des pétales est plus pâle. La floraison est remontante.
+Il a besoin d'une situation ensoleillée. Il résiste à des températures pouvant baisser à -20°.
 Ses fleurs nacrées en font depuis une trentaine d'années un grand classique des jardins d'aujourd'hui.
 On peut l'admirer dans les principales roseraies du monde et à la roseraie de Schiltigheim en Alsace.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_Si%C3%A8cle_(rose)</t>
+          <t>Grand_Siècle_(rose)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de la roseraie de Bagatelle</t>
         </is>
